--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H2">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I2">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J2">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N2">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O2">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P2">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q2">
-        <v>310.752743515118</v>
+        <v>395.8007408844987</v>
       </c>
       <c r="R2">
-        <v>310.752743515118</v>
+        <v>3562.206667960488</v>
       </c>
       <c r="S2">
-        <v>0.01533845303414865</v>
+        <v>0.01695052481801088</v>
       </c>
       <c r="T2">
-        <v>0.01533845303414865</v>
+        <v>0.0185543871772934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H3">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I3">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J3">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N3">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P3">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q3">
-        <v>132.610480852527</v>
+        <v>173.996848105975</v>
       </c>
       <c r="R3">
-        <v>132.610480852527</v>
+        <v>1565.971632953775</v>
       </c>
       <c r="S3">
-        <v>0.00654552429492356</v>
+        <v>0.007451572438912298</v>
       </c>
       <c r="T3">
-        <v>0.00654552429492356</v>
+        <v>0.008156641850069384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H4">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I4">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J4">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N4">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O4">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P4">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q4">
-        <v>181.1469421834766</v>
+        <v>225.80551334186</v>
       </c>
       <c r="R4">
-        <v>181.1469421834766</v>
+        <v>2032.24962007674</v>
       </c>
       <c r="S4">
-        <v>0.008941236796597177</v>
+        <v>0.00967032540007756</v>
       </c>
       <c r="T4">
-        <v>0.008941236796597177</v>
+        <v>0.01058533370086586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H5">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I5">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J5">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N5">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O5">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P5">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q5">
-        <v>169.1770679187755</v>
+        <v>213.2686963207867</v>
       </c>
       <c r="R5">
-        <v>169.1770679187755</v>
+        <v>1919.41826688708</v>
       </c>
       <c r="S5">
-        <v>0.008350415450478153</v>
+        <v>0.009133424868816105</v>
       </c>
       <c r="T5">
-        <v>0.008350415450478153</v>
+        <v>0.009997631524108805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H6">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I6">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J6">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N6">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O6">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P6">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q6">
-        <v>89.90802715738393</v>
+        <v>110.619161647319</v>
       </c>
       <c r="R6">
-        <v>89.90802715738393</v>
+        <v>663.714969883914</v>
       </c>
       <c r="S6">
-        <v>0.004437772733225781</v>
+        <v>0.004737365677134015</v>
       </c>
       <c r="T6">
-        <v>0.004437772733225781</v>
+        <v>0.003457077501245182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H7">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I7">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J7">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N7">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O7">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P7">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q7">
-        <v>2460.904307146948</v>
+        <v>2930.758074179009</v>
       </c>
       <c r="R7">
-        <v>2460.904307146948</v>
+        <v>26376.82266761109</v>
       </c>
       <c r="S7">
-        <v>0.1214678419560638</v>
+        <v>0.1255123660479805</v>
       </c>
       <c r="T7">
-        <v>0.1214678419560638</v>
+        <v>0.1373883735279936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H8">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I8">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J8">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N8">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P8">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q8">
-        <v>1050.165156424227</v>
+        <v>1288.382296427017</v>
       </c>
       <c r="R8">
-        <v>1050.165156424227</v>
+        <v>11595.44066784315</v>
       </c>
       <c r="S8">
-        <v>0.05183513023153321</v>
+        <v>0.05517613747227652</v>
       </c>
       <c r="T8">
-        <v>0.05183513023153321</v>
+        <v>0.06039691564714172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H9">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I9">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J9">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N9">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O9">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P9">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q9">
-        <v>1434.533723510407</v>
+        <v>1672.006297769693</v>
       </c>
       <c r="R9">
-        <v>1434.533723510407</v>
+        <v>15048.05667992724</v>
       </c>
       <c r="S9">
-        <v>0.07080718868342448</v>
+        <v>0.07160518240284489</v>
       </c>
       <c r="T9">
-        <v>0.07080718868342448</v>
+        <v>0.07838048039618212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H10">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I10">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J10">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N10">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O10">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P10">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q10">
-        <v>1339.742234943622</v>
+        <v>1579.175805267564</v>
       </c>
       <c r="R10">
-        <v>1339.742234943622</v>
+        <v>14212.58224740808</v>
       </c>
       <c r="S10">
-        <v>0.06612837304700539</v>
+        <v>0.06762963257565371</v>
       </c>
       <c r="T10">
-        <v>0.06612837304700539</v>
+        <v>0.07402876317631478</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H11">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I11">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J11">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N11">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O11">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P11">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q11">
-        <v>711.9970970358526</v>
+        <v>819.0939724678274</v>
       </c>
       <c r="R11">
-        <v>711.9970970358526</v>
+        <v>4914.563834806964</v>
       </c>
       <c r="S11">
-        <v>0.03514348388304191</v>
+        <v>0.03507844042325993</v>
       </c>
       <c r="T11">
-        <v>0.03514348388304191</v>
+        <v>0.02559838007679112</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H12">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I12">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J12">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N12">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O12">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P12">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q12">
-        <v>1330.551039581921</v>
+        <v>1439.530353815699</v>
       </c>
       <c r="R12">
-        <v>1330.551039581921</v>
+        <v>12955.77318434129</v>
       </c>
       <c r="S12">
-        <v>0.06567470458767515</v>
+        <v>0.06164918977691743</v>
       </c>
       <c r="T12">
-        <v>0.06567470458767515</v>
+        <v>0.06748244957418345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H13">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I13">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J13">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N13">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P13">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q13">
-        <v>567.7987301476686</v>
+        <v>632.8278814159751</v>
       </c>
       <c r="R13">
-        <v>567.7987301476686</v>
+        <v>5695.450932743775</v>
       </c>
       <c r="S13">
-        <v>0.02802599280928171</v>
+        <v>0.02710142655493659</v>
       </c>
       <c r="T13">
-        <v>0.02802599280928171</v>
+        <v>0.02966576945292973</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H14">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I14">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J14">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N14">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O14">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P14">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q14">
-        <v>775.6174555787472</v>
+        <v>821.2563973178599</v>
       </c>
       <c r="R14">
-        <v>775.6174555787472</v>
+        <v>7391.307575860739</v>
       </c>
       <c r="S14">
-        <v>0.03828372287333233</v>
+        <v>0.03517104822385587</v>
       </c>
       <c r="T14">
-        <v>0.03828372287333233</v>
+        <v>0.03849894048609513</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H15">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I15">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J15">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N15">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O15">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P15">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q15">
-        <v>724.3660057398561</v>
+        <v>775.6598969127867</v>
       </c>
       <c r="R15">
-        <v>724.3660057398561</v>
+        <v>6980.93907221508</v>
       </c>
       <c r="S15">
-        <v>0.03575400118079444</v>
+        <v>0.03321833684185223</v>
       </c>
       <c r="T15">
-        <v>0.03575400118079444</v>
+        <v>0.03636146312676845</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H16">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I16">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J16">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N16">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O16">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P16">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q16">
-        <v>384.9594943164095</v>
+        <v>402.322745907719</v>
       </c>
       <c r="R16">
-        <v>384.9594943164095</v>
+        <v>2413.936475446314</v>
       </c>
       <c r="S16">
-        <v>0.01900122604495881</v>
+        <v>0.01722983558373162</v>
       </c>
       <c r="T16">
-        <v>0.01900122604495881</v>
+        <v>0.01257341759243451</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H17">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I17">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J17">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N17">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O17">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P17">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q17">
-        <v>1820.793521687414</v>
+        <v>2119.273580392894</v>
       </c>
       <c r="R17">
-        <v>1820.793521687414</v>
+        <v>19073.46222353605</v>
       </c>
       <c r="S17">
-        <v>0.08987259646164905</v>
+        <v>0.09075980843372754</v>
       </c>
       <c r="T17">
-        <v>0.08987259646164905</v>
+        <v>0.09934752132435594</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H18">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I18">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J18">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N18">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P18">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q18">
-        <v>777.00457834377</v>
+        <v>931.6478853439916</v>
       </c>
       <c r="R18">
-        <v>777.00457834377</v>
+        <v>8384.830968095925</v>
       </c>
       <c r="S18">
-        <v>0.03835218990323922</v>
+        <v>0.03989866357218121</v>
       </c>
       <c r="T18">
-        <v>0.03835218990323922</v>
+        <v>0.04367388383091345</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H19">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I19">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J19">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N19">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O19">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P19">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q19">
-        <v>1061.394261785858</v>
+        <v>1209.051952917153</v>
       </c>
       <c r="R19">
-        <v>1061.394261785858</v>
+        <v>10881.46757625438</v>
       </c>
       <c r="S19">
-        <v>0.05238938794542049</v>
+        <v>0.0517787437395607</v>
       </c>
       <c r="T19">
-        <v>0.05238938794542049</v>
+        <v>0.05667805977764444</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H20">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I20">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J20">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N20">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O20">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P20">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q20">
-        <v>991.2591786002762</v>
+        <v>1141.924880250218</v>
       </c>
       <c r="R20">
-        <v>991.2591786002762</v>
+        <v>10277.32392225196</v>
       </c>
       <c r="S20">
-        <v>0.04892758848608338</v>
+        <v>0.04890396612126071</v>
       </c>
       <c r="T20">
-        <v>0.04892758848608338</v>
+        <v>0.05353127007341777</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H21">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I21">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J21">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N21">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O21">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P21">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q21">
-        <v>526.7980953091621</v>
+        <v>592.2987062643863</v>
       </c>
       <c r="R21">
-        <v>526.7980953091621</v>
+        <v>3553.792237586318</v>
       </c>
       <c r="S21">
-        <v>0.02600224137034995</v>
+        <v>0.02536572796143398</v>
       </c>
       <c r="T21">
-        <v>0.02600224137034995</v>
+        <v>0.01851055911968996</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H22">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I22">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J22">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N22">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O22">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P22">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q22">
-        <v>1202.1646686257</v>
+        <v>1370.252893530445</v>
       </c>
       <c r="R22">
-        <v>1202.1646686257</v>
+        <v>8221.51736118267</v>
       </c>
       <c r="S22">
-        <v>0.0593376782468571</v>
+        <v>0.05868231986336003</v>
       </c>
       <c r="T22">
-        <v>0.0593376782468571</v>
+        <v>0.04282323585440969</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H23">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I23">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J23">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N23">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O23">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P23">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q23">
-        <v>513.0111900769659</v>
+        <v>602.373012363725</v>
       </c>
       <c r="R23">
-        <v>513.0111900769659</v>
+        <v>3614.238074182349</v>
       </c>
       <c r="S23">
-        <v>0.02532173314378296</v>
+        <v>0.02579716923458438</v>
       </c>
       <c r="T23">
-        <v>0.02532173314378296</v>
+        <v>0.0188254020134349</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H24">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I24">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J24">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N24">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O24">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P24">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q24">
-        <v>700.7772522271027</v>
+        <v>781.7333978212598</v>
       </c>
       <c r="R24">
-        <v>700.7772522271027</v>
+        <v>4690.400386927559</v>
       </c>
       <c r="S24">
-        <v>0.03458968326103366</v>
+        <v>0.0334784400130874</v>
       </c>
       <c r="T24">
-        <v>0.03458968326103366</v>
+        <v>0.02443078487790479</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H25">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I25">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J25">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N25">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O25">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P25">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q25">
-        <v>654.4711126057945</v>
+        <v>738.3312309622532</v>
       </c>
       <c r="R25">
-        <v>654.4711126057945</v>
+        <v>4429.98738577352</v>
       </c>
       <c r="S25">
-        <v>0.03230405726867741</v>
+        <v>0.03161970295045586</v>
       </c>
       <c r="T25">
-        <v>0.03230405726867741</v>
+        <v>0.02307437743168006</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H26">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I26">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J26">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N26">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O26">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P26">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q26">
-        <v>347.81431839294</v>
+        <v>382.960946430829</v>
       </c>
       <c r="R26">
-        <v>347.81431839294</v>
+        <v>1531.843785723316</v>
       </c>
       <c r="S26">
-        <v>0.0171677763064222</v>
+        <v>0.01640064900408814</v>
       </c>
       <c r="T26">
-        <v>0.0171677763064222</v>
+        <v>0.007978880886131825</v>
       </c>
     </row>
   </sheetData>
